--- a/Uncertain_EP_Input.xlsx
+++ b/Uncertain_EP_Input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="1" state="visible" r:id="rId1"/>
@@ -613,10 +613,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -710,7 +710,7 @@
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
       <c r="N2" s="11" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -719,12 +719,12 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>ElectricEquipment</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Conductivity</t>
+          <t>Watts_per_Zone_Floor_Area</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>DesignSpecification_OutdoorAir</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Conductivity</t>
+          <t>Outdoor_Air_Flow_per_Zone_Floor_Area</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>Conductivity</t>
+          <t>Effective_Leakage_Area</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>Zone_Floor_Area_per_Person</t>
+          <t>Effective_Leakage_Area</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -876,17 +876,17 @@
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>ElectricEquipment</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Zone_Floor_Area_per_Person</t>
+          <t>Watts_per_Zone_Floor_Area</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Obj2</t>
+          <t>Obj3</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>People</t>
+          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>Zone_Floor_Area_per_Person</t>
+          <t>Effective_Leakage_Area</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>Obj3</t>
+          <t>Obj2</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>Obj4</t>
+          <t>Obj2</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>Obj5</t>
+          <t>Obj3</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr">
@@ -1000,29 +1000,11 @@
       <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>People</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>Zone_Floor_Area_per_Person</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Obj6</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="n"/>
       <c r="H12" s="8" t="n"/>
       <c r="J12" s="21" t="inlineStr">
@@ -1040,29 +1022,11 @@
       <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Lights</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B13" s="8" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
       <c r="H13" s="8" t="n"/>
       <c r="J13" s="15" t="inlineStr">
@@ -1080,29 +1044,11 @@
       <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>Lights</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Obj2</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B14" s="8" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="8" t="n"/>
       <c r="G14" s="8" t="n"/>
       <c r="H14" s="8" t="n"/>
       <c r="J14" s="18" t="inlineStr">
@@ -1120,29 +1066,11 @@
       <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>Lights</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Obj3</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B15" s="8" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="n"/>
       <c r="H15" s="8" t="n"/>
       <c r="J15" s="18" t="inlineStr">
@@ -1160,29 +1088,11 @@
       <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Lights</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>Obj4</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="H16" s="8" t="n"/>
       <c r="J16" s="13" t="inlineStr">
@@ -1200,29 +1110,11 @@
       <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Lights</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>Obj5</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
+      <c r="E17" s="8" t="n"/>
+      <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="H17" s="8" t="n"/>
     </row>
@@ -1230,29 +1122,11 @@
       <c r="A18" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>Lights</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="inlineStr">
-        <is>
-          <t>Obj6</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B18" s="8" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="H18" s="8" t="n"/>
     </row>
@@ -1260,29 +1134,11 @@
       <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>ElectricEquipment</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D19" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E19" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F19" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="H19" s="8" t="n"/>
     </row>
@@ -1290,29 +1146,11 @@
       <c r="A20" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>ElectricEquipment</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>Obj2</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B20" s="8" t="n"/>
+      <c r="C20" s="8" t="n"/>
+      <c r="D20" s="8" t="n"/>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="H20" s="8" t="n"/>
     </row>
@@ -1320,29 +1158,11 @@
       <c r="A21" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>ElectricEquipment</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>Obj3</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="n"/>
       <c r="H21" s="8" t="n"/>
     </row>
@@ -1350,29 +1170,11 @@
       <c r="A22" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>ElectricEquipment</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Obj4</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B22" s="8" t="n"/>
+      <c r="C22" s="8" t="n"/>
+      <c r="D22" s="8" t="n"/>
+      <c r="E22" s="8" t="n"/>
+      <c r="F22" s="8" t="n"/>
       <c r="G22" s="8" t="n"/>
       <c r="H22" s="8" t="n"/>
     </row>
@@ -1380,29 +1182,11 @@
       <c r="A23" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>ElectricEquipment</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>Obj5</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="8" t="n"/>
+      <c r="D23" s="8" t="n"/>
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="n"/>
       <c r="H23" s="8" t="n"/>
     </row>
@@ -1410,29 +1194,11 @@
       <c r="A24" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>ElectricEquipment</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>Watts_per_Zone_Floor_Area</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>Obj6</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="8" t="n"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="E24" s="8" t="n"/>
+      <c r="F24" s="8" t="n"/>
       <c r="G24" s="8" t="n"/>
       <c r="H24" s="8" t="n"/>
     </row>
@@ -1440,29 +1206,11 @@
       <c r="A25" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="8" t="n"/>
+      <c r="D25" s="8" t="n"/>
+      <c r="E25" s="8" t="n"/>
+      <c r="F25" s="8" t="n"/>
       <c r="G25" s="8" t="n"/>
       <c r="H25" s="8" t="n"/>
     </row>
@@ -1470,29 +1218,11 @@
       <c r="A26" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Obj2</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B26" s="8" t="n"/>
+      <c r="C26" s="8" t="n"/>
+      <c r="D26" s="8" t="n"/>
+      <c r="E26" s="8" t="n"/>
+      <c r="F26" s="8" t="n"/>
       <c r="G26" s="8" t="n"/>
       <c r="H26" s="8" t="n"/>
     </row>
@@ -1500,29 +1230,11 @@
       <c r="A27" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Obj3</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="8" t="n"/>
+      <c r="F27" s="8" t="n"/>
       <c r="G27" s="8" t="n"/>
       <c r="H27" s="8" t="n"/>
     </row>
@@ -1530,29 +1242,11 @@
       <c r="A28" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>Obj4</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
       <c r="G28" s="8" t="n"/>
       <c r="H28" s="8" t="n"/>
     </row>
@@ -1560,29 +1254,11 @@
       <c r="A29" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Obj5</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
       <c r="G29" s="8" t="n"/>
       <c r="H29" s="8" t="n"/>
     </row>
@@ -1590,29 +1266,11 @@
       <c r="A30" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>Obj6</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B30" s="8" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
       <c r="G30" s="8" t="n"/>
       <c r="H30" s="8" t="n"/>
     </row>
@@ -1620,29 +1278,11 @@
       <c r="A31" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Obj7</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
       <c r="G31" s="8" t="n"/>
       <c r="H31" s="8" t="n"/>
     </row>
@@ -1650,29 +1290,11 @@
       <c r="A32" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>Obj8</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B32" s="8" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="8" t="n"/>
+      <c r="F32" s="8" t="n"/>
       <c r="G32" s="8" t="n"/>
       <c r="H32" s="8" t="n"/>
     </row>
@@ -1680,29 +1302,11 @@
       <c r="A33" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>Obj9</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B33" s="8" t="n"/>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="8" t="n"/>
+      <c r="E33" s="8" t="n"/>
+      <c r="F33" s="8" t="n"/>
       <c r="G33" s="8" t="n"/>
       <c r="H33" s="8" t="n"/>
     </row>
@@ -1710,29 +1314,11 @@
       <c r="A34" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_Surface_EffectiveLeakageArea</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
-        <is>
-          <t>Effective_Leakage_Area</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="inlineStr">
-        <is>
-          <t>Obj10</t>
-        </is>
-      </c>
-      <c r="E34" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F34" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B34" s="8" t="n"/>
+      <c r="C34" s="8" t="n"/>
+      <c r="D34" s="8" t="n"/>
+      <c r="E34" s="8" t="n"/>
+      <c r="F34" s="8" t="n"/>
       <c r="G34" s="8" t="n"/>
       <c r="H34" s="8" t="n"/>
     </row>
@@ -1740,29 +1326,11 @@
       <c r="A35" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_WindPressureCoefficientValues</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>Wind_Pressure_Coefficient_Value_1</t>
-        </is>
-      </c>
-      <c r="D35" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E35" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B35" s="8" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="D35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="8" t="n"/>
       <c r="G35" s="8" t="n"/>
       <c r="H35" s="8" t="n"/>
     </row>
@@ -1770,29 +1338,11 @@
       <c r="A36" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_WindPressureCoefficientValues</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>Wind_Pressure_Coefficient_Value_2</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E36" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B36" s="8" t="n"/>
+      <c r="C36" s="8" t="n"/>
+      <c r="D36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
       <c r="G36" s="8" t="n"/>
       <c r="H36" s="8" t="n"/>
     </row>
@@ -1800,29 +1350,11 @@
       <c r="A37" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_WindPressureCoefficientValues</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>Wind_Pressure_Coefficient_Value_3</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F37" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B37" s="8" t="n"/>
+      <c r="C37" s="8" t="n"/>
+      <c r="D37" s="8" t="n"/>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
       <c r="G37" s="8" t="n"/>
       <c r="H37" s="8" t="n"/>
     </row>
@@ -1830,29 +1362,11 @@
       <c r="A38" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_WindPressureCoefficientValues</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <t>Wind_Pressure_Coefficient_Value_4</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E38" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F38" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B38" s="8" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
       <c r="G38" s="8" t="n"/>
       <c r="H38" s="8" t="n"/>
     </row>
@@ -1860,29 +1374,11 @@
       <c r="A39" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>AirflowNetwork_MultiZone_WindPressureCoefficientValues</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
-        <is>
-          <t>Wind_Pressure_Coefficient_Value_5</t>
-        </is>
-      </c>
-      <c r="D39" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F39" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B39" s="8" t="n"/>
+      <c r="C39" s="8" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
       <c r="G39" s="8" t="n"/>
       <c r="H39" s="8" t="n"/>
     </row>
@@ -1890,29 +1386,11 @@
       <c r="A40" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>DesignSpecification_OutdoorAir</t>
-        </is>
-      </c>
-      <c r="C40" s="8" t="inlineStr">
-        <is>
-          <t>Outdoor_Air_Flow_per_Person</t>
-        </is>
-      </c>
-      <c r="D40" s="8" t="inlineStr">
-        <is>
-          <t>Obj1</t>
-        </is>
-      </c>
-      <c r="E40" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F40" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B40" s="8" t="n"/>
+      <c r="C40" s="8" t="n"/>
+      <c r="D40" s="8" t="n"/>
+      <c r="E40" s="8" t="n"/>
+      <c r="F40" s="8" t="n"/>
       <c r="G40" s="8" t="n"/>
       <c r="H40" s="8" t="n"/>
     </row>
@@ -1920,29 +1398,11 @@
       <c r="A41" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>DesignSpecification_OutdoorAir</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
-        <is>
-          <t>Outdoor_Air_Flow_per_Person</t>
-        </is>
-      </c>
-      <c r="D41" s="8" t="inlineStr">
-        <is>
-          <t>Obj2</t>
-        </is>
-      </c>
-      <c r="E41" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F41" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B41" s="8" t="n"/>
+      <c r="C41" s="8" t="n"/>
+      <c r="D41" s="8" t="n"/>
+      <c r="E41" s="8" t="n"/>
+      <c r="F41" s="8" t="n"/>
       <c r="G41" s="8" t="n"/>
       <c r="H41" s="8" t="n"/>
     </row>
@@ -1950,29 +1410,11 @@
       <c r="A42" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="inlineStr">
-        <is>
-          <t>DesignSpecification_OutdoorAir</t>
-        </is>
-      </c>
-      <c r="C42" s="8" t="inlineStr">
-        <is>
-          <t>Outdoor_Air_Flow_per_Person</t>
-        </is>
-      </c>
-      <c r="D42" s="8" t="inlineStr">
-        <is>
-          <t>Obj3</t>
-        </is>
-      </c>
-      <c r="E42" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F42" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B42" s="8" t="n"/>
+      <c r="C42" s="8" t="n"/>
+      <c r="D42" s="8" t="n"/>
+      <c r="E42" s="8" t="n"/>
+      <c r="F42" s="8" t="n"/>
       <c r="G42" s="8" t="n"/>
       <c r="H42" s="8" t="n"/>
     </row>
@@ -1980,29 +1422,11 @@
       <c r="A43" s="7" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="inlineStr">
-        <is>
-          <t>DesignSpecification_OutdoorAir</t>
-        </is>
-      </c>
-      <c r="C43" s="8" t="inlineStr">
-        <is>
-          <t>Outdoor_Air_Flow_per_Person</t>
-        </is>
-      </c>
-      <c r="D43" s="8" t="inlineStr">
-        <is>
-          <t>Obj4</t>
-        </is>
-      </c>
-      <c r="E43" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F43" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B43" s="8" t="n"/>
+      <c r="C43" s="8" t="n"/>
+      <c r="D43" s="8" t="n"/>
+      <c r="E43" s="8" t="n"/>
+      <c r="F43" s="8" t="n"/>
       <c r="G43" s="8" t="n"/>
       <c r="H43" s="8" t="n"/>
     </row>
@@ -2010,29 +1434,11 @@
       <c r="A44" s="7" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>DesignSpecification_OutdoorAir</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="inlineStr">
-        <is>
-          <t>Outdoor_Air_Flow_per_Person</t>
-        </is>
-      </c>
-      <c r="D44" s="8" t="inlineStr">
-        <is>
-          <t>Obj5</t>
-        </is>
-      </c>
-      <c r="E44" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F44" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B44" s="8" t="n"/>
+      <c r="C44" s="8" t="n"/>
+      <c r="D44" s="8" t="n"/>
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
       <c r="G44" s="8" t="n"/>
       <c r="H44" s="8" t="n"/>
     </row>
@@ -2040,29 +1446,11 @@
       <c r="A45" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>DesignSpecification_OutdoorAir</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <t>Outdoor_Air_Flow_per_Person</t>
-        </is>
-      </c>
-      <c r="D45" s="8" t="inlineStr">
-        <is>
-          <t>Obj6</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="inlineStr">
-        <is>
-          <t>NormalRelative</t>
-        </is>
-      </c>
-      <c r="F45" s="8" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="B45" s="8" t="n"/>
+      <c r="C45" s="8" t="n"/>
+      <c r="D45" s="8" t="n"/>
+      <c r="E45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
       <c r="G45" s="8" t="n"/>
       <c r="H45" s="8" t="n"/>
     </row>
@@ -2725,6 +2113,18 @@
       <c r="F100" s="8" t="n"/>
       <c r="G100" s="8" t="n"/>
       <c r="H100" s="8" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="n"/>
+      <c r="C101" s="8" t="n"/>
+      <c r="D101" s="8" t="n"/>
+      <c r="E101" s="8" t="n"/>
+      <c r="F101" s="8" t="n"/>
+      <c r="G101" s="8" t="n"/>
+      <c r="H101" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2735,13 +2135,13 @@
     <mergeCell ref="J12:O12"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation sqref="C2:C100" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C2:C101" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>INDIRECT(B2)</formula1>
     </dataValidation>
-    <dataValidation sqref="B2:B48 B50:B100 B49" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B2:B101" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>EnergyPlusClassList</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E100" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2:E101" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>Distribution</formula1>
     </dataValidation>
   </dataValidations>
@@ -2757,8 +2157,8 @@
   </sheetPr>
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>

--- a/Uncertain_EP_Input.xlsx
+++ b/Uncertain_EP_Input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-27360" yWindow="1920" windowWidth="25395" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="Coil_Heating_DX_SingleSpeed">Sheet2!$Q$2:$Q$4</definedName>
     <definedName name="CoilPerformance_DX_Cooling">Sheet2!$P$2:$P$5</definedName>
     <definedName name="DesignSpecification_OutdoorAir">Sheet2!$I$2:$I$5</definedName>
-    <definedName name="Distribution">Sheet2!$B$28:$B$30</definedName>
+    <definedName name="Distribution">Sheet2!$B$28:$B$34</definedName>
     <definedName name="ElectricEquipment">Sheet2!$G$2:$G$4</definedName>
     <definedName name="EnergyPlusClassList">Sheet2!$B$2:$B$16</definedName>
     <definedName name="Fan_ConstantVolume">Sheet2!$L$2:$L$3</definedName>
@@ -286,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -616,7 +616,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G2" s="8" t="n"/>
       <c r="H2" s="8" t="n"/>
@@ -750,12 +750,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>DesignSpecification_OutdoorAir</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Outdoor_Air_Flow_per_Zone_Floor_Area</t>
+          <t>Conductivity</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1095,16 +1095,16 @@
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="8" t="n"/>
       <c r="H16" s="8" t="n"/>
-      <c r="J16" s="13" t="inlineStr">
-        <is>
-          <t>Reference: https://docs.scipy.org/doc/scipy/reference/stats.html</t>
-        </is>
-      </c>
-      <c r="K16" s="14" t="n"/>
-      <c r="L16" s="14" t="n"/>
-      <c r="M16" s="14" t="n"/>
-      <c r="N16" s="14" t="n"/>
-      <c r="O16" s="14" t="n"/>
+      <c r="J16" s="18" t="inlineStr">
+        <is>
+          <t>4. NormalAbsolute a: mean b: standard deviation, c: empty</t>
+        </is>
+      </c>
+      <c r="K16" s="19" t="n"/>
+      <c r="L16" s="19" t="n"/>
+      <c r="M16" s="19" t="n"/>
+      <c r="N16" s="19" t="n"/>
+      <c r="O16" s="20" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
@@ -1117,6 +1117,16 @@
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="8" t="n"/>
       <c r="H17" s="8" t="n"/>
+      <c r="J17" s="18" t="inlineStr">
+        <is>
+          <t>5. UniformaAbsolute a: lower bound, b: upper bound, c: empty</t>
+        </is>
+      </c>
+      <c r="K17" s="19" t="n"/>
+      <c r="L17" s="19" t="n"/>
+      <c r="M17" s="19" t="n"/>
+      <c r="N17" s="19" t="n"/>
+      <c r="O17" s="20" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
@@ -1129,6 +1139,16 @@
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="8" t="n"/>
       <c r="H18" s="8" t="n"/>
+      <c r="J18" s="18" t="inlineStr">
+        <is>
+          <t>6. TriangleAbsolute a: shape parameter, b: lower bound, c: upper bound</t>
+        </is>
+      </c>
+      <c r="K18" s="19" t="n"/>
+      <c r="L18" s="19" t="n"/>
+      <c r="M18" s="19" t="n"/>
+      <c r="N18" s="19" t="n"/>
+      <c r="O18" s="20" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
@@ -1141,6 +1161,16 @@
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="8" t="n"/>
       <c r="H19" s="8" t="n"/>
+      <c r="J19" s="18" t="inlineStr">
+        <is>
+          <t>7. LogNormalAbsolute: a: standard deviation, b: mean (mu), c: empty</t>
+        </is>
+      </c>
+      <c r="K19" s="19" t="n"/>
+      <c r="L19" s="19" t="n"/>
+      <c r="M19" s="19" t="n"/>
+      <c r="N19" s="19" t="n"/>
+      <c r="O19" s="20" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
@@ -1153,6 +1183,16 @@
       <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="n"/>
       <c r="H20" s="8" t="n"/>
+      <c r="J20" s="13" t="inlineStr">
+        <is>
+          <t>Reference: https://docs.scipy.org/doc/scipy/reference/stats.html</t>
+        </is>
+      </c>
+      <c r="K20" s="14" t="n"/>
+      <c r="L20" s="14" t="n"/>
+      <c r="M20" s="14" t="n"/>
+      <c r="N20" s="14" t="n"/>
+      <c r="O20" s="14" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
@@ -2127,12 +2167,16 @@
       <c r="H101" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J16:O16"/>
+  <mergeCells count="9">
+    <mergeCell ref="J20:O20"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="J14:O14"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation sqref="C2:C101" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
@@ -2157,8 +2201,8 @@
   </sheetPr>
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -2882,7 +2926,11 @@
           <t>Obj30</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>NormalAbsolute</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2890,7 +2938,11 @@
           <t>Obj31</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n"/>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>UniformAbsolute</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2898,7 +2950,11 @@
           <t>Obj32</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>TriangleAbsolute</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2906,7 +2962,11 @@
           <t>Obj33</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n"/>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>LogNormalAbsolute</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
